--- a/WebApplication5/Student_Details.xlsx
+++ b/WebApplication5/Student_Details.xlsx
@@ -668,7 +668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ae79ad1-db83-4d9a-be6f-467d343343d7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{dd4863e1-11dc-4611-ba73-912cb923e572}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/WebApplication5/Student_Details.xlsx
+++ b/WebApplication5/Student_Details.xlsx
@@ -668,7 +668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{dd4863e1-11dc-4611-ba73-912cb923e572}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0b56ab54-633f-4a9a-91dc-d56af231f3ab}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/WebApplication5/Student_Details.xlsx
+++ b/WebApplication5/Student_Details.xlsx
@@ -668,7 +668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0b56ab54-633f-4a9a-91dc-d56af231f3ab}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419d289e-dc7d-41c2-bbbc-dafe0f98734a}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
